--- a/data/raw/TEST_tabuľkovy kalkulátor_ZDROJE_B - Copy.xlsx
+++ b/data/raw/TEST_tabuľkovy kalkulátor_ZDROJE_B - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itechadm\Documents\bilgym\prvaci\Anita\Informatika_Záloha 18_8_2025\__Tabuľkový kalkulátor EXCEL\Excel 24_25\TEST 24_25\s opakovaním\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbella/Documents/GitHub/word-processing/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37CC28-5B48-4079-9A0C-96E2F186D51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4951C0F4-A353-1045-8D43-104156C2567C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="340" windowWidth="15360" windowHeight="8780" xr2:uid="{86EEF7D9-0B5A-4C0A-BC6C-A701D8ABAA70}"/>
+    <workbookView xWindow="3660" yWindow="660" windowWidth="15360" windowHeight="8780" xr2:uid="{86EEF7D9-0B5A-4C0A-BC6C-A701D8ABAA70}"/>
   </bookViews>
   <sheets>
     <sheet name="Bežci" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="227">
   <si>
     <t>Poradie</t>
   </si>
@@ -727,9 +727,6 @@
     <t>MBK Tyrnavia Trnava</t>
   </si>
   <si>
-    <t>Zdroj:internet</t>
-  </si>
-  <si>
     <t>Novoročný beh 2024</t>
   </si>
 </sst>
@@ -34827,27 +34824,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4CB927-BE9F-493A-BC17-EC7A16C87918}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.17578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.703125" customWidth="1"/>
-    <col min="7" max="7" width="8.52734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="31.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.29296875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.35" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -34858,7 +34855,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -34887,7 +34884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -34915,7 +34912,7 @@
         <v>1.1805555555555556</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -34943,7 +34940,7 @@
         <v>1.1909722222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -34971,7 +34968,7 @@
         <v>1.6194444444444445</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -34999,7 +34996,7 @@
         <v>1.6993055555555554</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -35027,7 +35024,7 @@
         <v>2.129861111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -35055,7 +35052,7 @@
         <v>1.7902777777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -35083,7 +35080,7 @@
         <v>1.5805555555555555</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -35111,7 +35108,7 @@
         <v>2.1479166666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -35139,7 +35136,7 @@
         <v>1.6673611111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -35167,7 +35164,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -35195,7 +35192,7 @@
         <v>1.3375000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -35223,7 +35220,7 @@
         <v>1.5493055555555555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>13</v>
@@ -35251,7 +35248,7 @@
         <v>1.8069444444444445</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>14</v>
@@ -35279,7 +35276,7 @@
         <v>1.4069444444444443</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>15</v>
@@ -35307,7 +35304,7 @@
         <v>2.1326388888888888</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>16</v>
@@ -35335,7 +35332,7 @@
         <v>1.6618055555555555</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -35363,7 +35360,7 @@
         <v>1.6409722222222223</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -35391,7 +35388,7 @@
         <v>1.5541666666666665</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>19</v>
@@ -35417,7 +35414,7 @@
         <v>1.4076388888888889</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>20</v>
@@ -35445,7 +35442,7 @@
         <v>2.1104166666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>21</v>
@@ -35473,7 +35470,7 @@
         <v>1.6354166666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>22</v>
@@ -35501,7 +35498,7 @@
         <v>1.8743055555555557</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>23</v>
@@ -35529,7 +35526,7 @@
         <v>1.3083333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>24</v>
@@ -35557,7 +35554,7 @@
         <v>1.6145833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -35585,7 +35582,7 @@
         <v>1.3687500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -35613,7 +35610,7 @@
         <v>1.8812499999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -35641,7 +35638,7 @@
         <v>1.5243055555555556</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>28</v>
@@ -35669,7 +35666,7 @@
         <v>1.7020833333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>29</v>
@@ -35697,7 +35694,7 @@
         <v>1.320138888888889</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>30</v>
@@ -35725,7 +35722,7 @@
         <v>1.3215277777777776</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>31</v>
@@ -35753,7 +35750,7 @@
         <v>1.3243055555555556</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>32</v>
@@ -35781,7 +35778,7 @@
         <v>1.1826388888888888</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>33</v>
@@ -35809,7 +35806,7 @@
         <v>1.4131944444444444</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>34</v>
@@ -35837,7 +35834,7 @@
         <v>1.4930555555555556</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>35</v>
@@ -35865,7 +35862,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>36</v>
@@ -35893,7 +35890,7 @@
         <v>1.3861111111111111</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>37</v>
@@ -35921,7 +35918,7 @@
         <v>1.5395833333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>38</v>
@@ -35949,7 +35946,7 @@
         <v>1.4777777777777779</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>39</v>
@@ -35977,7 +35974,7 @@
         <v>1.6923611111111112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>40</v>
@@ -36005,7 +36002,7 @@
         <v>1.8701388888888888</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>41</v>
@@ -36033,7 +36030,7 @@
         <v>1.6076388888888891</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>42</v>
@@ -36061,7 +36058,7 @@
         <v>1.8423611111111111</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>43</v>
@@ -36089,7 +36086,7 @@
         <v>1.8069444444444445</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>44</v>
@@ -36117,7 +36114,7 @@
         <v>1.5847222222222221</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>45</v>
@@ -36145,7 +36142,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>46</v>
@@ -36173,7 +36170,7 @@
         <v>1.7430555555555556</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>47</v>
@@ -36201,7 +36198,7 @@
         <v>1.5444444444444445</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>48</v>
@@ -36229,7 +36226,7 @@
         <v>1.2611111111111111</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>49</v>
@@ -36257,7 +36254,7 @@
         <v>2.0472222222222221</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>50</v>
@@ -36285,7 +36282,7 @@
         <v>1.5326388888888889</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>51</v>
@@ -36313,7 +36310,7 @@
         <v>1.7347222222222223</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>52</v>
@@ -36341,7 +36338,7 @@
         <v>1.471527777777778</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>53</v>
@@ -36369,7 +36366,7 @@
         <v>1.6722222222222223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>54</v>
@@ -36397,7 +36394,7 @@
         <v>1.2437500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>55</v>
@@ -36425,7 +36422,7 @@
         <v>1.8770833333333332</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>56</v>
@@ -36453,7 +36450,7 @@
         <v>1.2104166666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>57</v>
@@ -36481,7 +36478,7 @@
         <v>1.3770833333333332</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>58</v>
@@ -36509,7 +36506,7 @@
         <v>1.3506944444444444</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>59</v>
@@ -36537,7 +36534,7 @@
         <v>1.3805555555555555</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>60</v>
@@ -36565,7 +36562,7 @@
         <v>1.2555555555555555</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>61</v>
@@ -36593,7 +36590,7 @@
         <v>1.8055555555555556</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>62</v>
@@ -36621,7 +36618,7 @@
         <v>1.877777777777778</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>63</v>
@@ -36649,7 +36646,7 @@
         <v>1.6263888888888889</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>64</v>
@@ -36677,7 +36674,7 @@
         <v>1.4625000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>65</v>
@@ -36705,7 +36702,7 @@
         <v>1.4229166666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>66</v>
@@ -36733,7 +36730,7 @@
         <v>1.1763888888888889</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>67</v>
@@ -36761,7 +36758,7 @@
         <v>1.4145833333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>68</v>
@@ -36789,7 +36786,7 @@
         <v>1.4798611111111111</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>69</v>
@@ -36817,7 +36814,7 @@
         <v>1.242361111111111</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>70</v>
@@ -36845,7 +36842,7 @@
         <v>1.4861111111111109</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>71</v>
@@ -36873,7 +36870,7 @@
         <v>1.5708333333333335</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>72</v>
@@ -36901,7 +36898,7 @@
         <v>1.7034722222222223</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>73</v>
@@ -36929,7 +36926,7 @@
         <v>1.4305555555555556</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>74</v>
@@ -36957,7 +36954,7 @@
         <v>1.6340277777777779</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>75</v>
@@ -36985,7 +36982,7 @@
         <v>1.559722222222222</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2">
         <v>76</v>
@@ -37013,7 +37010,7 @@
         <v>1.3993055555555556</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2">
         <v>77</v>
@@ -37041,7 +37038,7 @@
         <v>1.7249999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>78</v>
@@ -37069,7 +37066,7 @@
         <v>1.3756944444444443</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>79</v>
@@ -37097,7 +37094,7 @@
         <v>1.3604166666666666</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>80</v>
@@ -37125,7 +37122,7 @@
         <v>1.2458333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>81</v>
@@ -37153,7 +37150,7 @@
         <v>1.7652777777777777</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>82</v>
@@ -37181,7 +37178,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>83</v>
@@ -37209,7 +37206,7 @@
         <v>1.7534722222222223</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>84</v>
@@ -37237,7 +37234,7 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>85</v>
@@ -37265,7 +37262,7 @@
         <v>1.1743055555555555</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>86</v>
@@ -37293,7 +37290,7 @@
         <v>1.2284722222222222</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>87</v>
@@ -37321,7 +37318,7 @@
         <v>1.3145833333333334</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>88</v>
@@ -37349,7 +37346,7 @@
         <v>1.4305555555555556</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>89</v>
@@ -37377,7 +37374,7 @@
         <v>2.004861111111111</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>90</v>
@@ -37405,7 +37402,7 @@
         <v>1.8159722222222223</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>91</v>
@@ -37433,7 +37430,7 @@
         <v>1.5819444444444446</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>92</v>
@@ -37461,7 +37458,7 @@
         <v>1.6430555555555555</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>93</v>
@@ -37489,7 +37486,7 @@
         <v>1.5506944444444446</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>94</v>
@@ -37517,7 +37514,7 @@
         <v>1.4159722222222222</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>95</v>
@@ -37545,7 +37542,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
         <v>96</v>
@@ -37573,7 +37570,7 @@
         <v>1.4770833333333335</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="2">
         <v>97</v>
@@ -37601,7 +37598,7 @@
         <v>1.5777777777777777</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>98</v>
@@ -37629,7 +37626,7 @@
         <v>1.4597222222222221</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>99</v>
@@ -37657,7 +37654,7 @@
         <v>1.5930555555555557</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>100</v>
@@ -37685,7 +37682,7 @@
         <v>1.9159722222222222</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>101</v>
@@ -37713,7 +37710,7 @@
         <v>1.5868055555555556</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>102</v>
@@ -37741,7 +37738,7 @@
         <v>1.2861111111111112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>103</v>
@@ -37769,7 +37766,7 @@
         <v>1.5097222222222222</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2">
         <v>104</v>
@@ -37797,7 +37794,7 @@
         <v>1.70625</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="2">
         <v>105</v>
@@ -37825,7 +37822,7 @@
         <v>1.8770833333333332</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>106</v>
@@ -37853,13 +37850,8 @@
         <v>1.8805555555555555</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I112" s="8"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A113" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
